--- a/static/schedule/Pасписание/29 февраля 2024 четверг.xlsx
+++ b/static/schedule/Pасписание/29 февраля 2024 четверг.xlsx
@@ -175,11 +175,6 @@
 Говезин Е.А.</t>
   </si>
   <si>
-    <t>Технология разработики
-и защиты баз данных
-Яхругина Е.О</t>
-  </si>
-  <si>
     <t>Численные методы
 Курбанов И.Б.</t>
   </si>
@@ -402,6 +397,11 @@
   </si>
   <si>
     <t>33а</t>
+  </si>
+  <si>
+    <t>Технология разработки
+и защиты баз данных
+Яхругина Е.О</t>
   </si>
 </sst>
 </file>
@@ -1296,14 +1296,14 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O5" activeCellId="1" sqref="M4 O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,24 +1704,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="2"/>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1774,43 +1774,43 @@
       <c r="E3" s="48"/>
       <c r="F3" s="33"/>
       <c r="G3" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>89</v>
       </c>
       <c r="K3" s="50" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M3" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1822,40 +1822,40 @@
       <c r="E4" s="50"/>
       <c r="F4" s="33"/>
       <c r="G4" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="48" t="s">
+      <c r="M4" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>75</v>
-      </c>
       <c r="P4" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1866,43 +1866,43 @@
         <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>94</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>95</v>
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="33"/>
       <c r="K5" s="45"/>
       <c r="L5" s="33"/>
       <c r="M5" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="64"/>
       <c r="R5" s="27"/>
     </row>
-    <row r="6" spans="1:20" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1910,22 +1910,22 @@
         <v>41</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="34"/>
@@ -1934,15 +1934,15 @@
       <c r="M6" s="45"/>
       <c r="N6" s="33"/>
       <c r="O6" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="21"/>
       <c r="R6" s="27"/>
     </row>
-    <row r="7" spans="1:20" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1950,16 +1950,16 @@
         <v>42</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="33"/>
@@ -1986,16 +1986,16 @@
         <v>43</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="27"/>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -2066,34 +2066,34 @@
       <c r="C10" s="45"/>
       <c r="D10" s="33"/>
       <c r="E10" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="33"/>
       <c r="K10" s="50"/>
       <c r="L10" s="33"/>
       <c r="M10" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S10" s="62" t="s">
         <v>36</v>
@@ -2102,7 +2102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -2112,34 +2112,34 @@
       <c r="C11" s="45"/>
       <c r="D11" s="33"/>
       <c r="E11" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="33"/>
       <c r="K11" s="45"/>
       <c r="L11" s="33"/>
       <c r="M11" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O11" s="48"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S11" s="62" t="s">
         <v>36</v>
@@ -2158,46 +2158,46 @@
       <c r="C12" s="45"/>
       <c r="D12" s="33"/>
       <c r="E12" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>85</v>
-      </c>
       <c r="L12" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M12" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O12" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="66" t="s">
-        <v>79</v>
-      </c>
       <c r="R12" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S12" s="62" t="s">
         <v>36</v>
@@ -2206,7 +2206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2214,42 +2214,42 @@
         <v>41</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="33"/>
       <c r="G13" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>105</v>
-      </c>
       <c r="K13" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O13" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="45"/>
       <c r="R13" s="33"/>
@@ -2260,7 +2260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -2268,10 +2268,10 @@
         <v>42</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="33"/>
@@ -2280,24 +2280,24 @@
         <v>36</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14" s="48"/>
       <c r="N14" s="33"/>
       <c r="O14" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="33"/>
@@ -2313,10 +2313,10 @@
         <v>43</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="33"/>
@@ -2327,10 +2327,10 @@
         <v>36</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>36</v>
@@ -2341,10 +2341,10 @@
       <c r="M15" s="48"/>
       <c r="N15" s="33"/>
       <c r="O15" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="33"/>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:19" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2396,15 +2396,15 @@
         <v>46</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="33"/>
       <c r="G17" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="33"/>
@@ -2417,10 +2417,10 @@
       <c r="O17" s="64"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2434,21 +2434,21 @@
         <v>46</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="33"/>
       <c r="G18" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="33"/>
@@ -2461,13 +2461,13 @@
       <c r="O18" s="63"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -2478,25 +2478,25 @@
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="33"/>
@@ -2509,13 +2509,13 @@
       <c r="O19" s="48"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -2526,27 +2526,27 @@
         <v>46</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="33"/>
       <c r="I20" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>47</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M20" s="48" t="s">
         <v>36</v>
@@ -2555,15 +2555,15 @@
         <v>36</v>
       </c>
       <c r="O20" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="48"/>
       <c r="R20" s="33"/>
     </row>
-    <row r="21" spans="1:19" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -2573,24 +2573,24 @@
       <c r="C21" s="47"/>
       <c r="D21" s="33"/>
       <c r="E21" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
       <c r="I21" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>47</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M21" s="48" t="s">
         <v>36</v>
@@ -2599,15 +2599,15 @@
         <v>36</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="48"/>
       <c r="R21" s="33"/>
     </row>
-    <row r="22" spans="1:19" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
@@ -2617,10 +2617,10 @@
       <c r="C22" s="48"/>
       <c r="D22" s="33"/>
       <c r="E22" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="42"/>
@@ -2632,7 +2632,7 @@
         <v>47</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>36</v>
@@ -2675,7 +2675,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="R24" s="34"/>
       <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:19" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>38</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="33"/>
@@ -2728,7 +2728,7 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="33"/>
@@ -2756,7 +2756,7 @@
       <c r="Q26" s="53"/>
       <c r="R26" s="54"/>
     </row>
-    <row r="27" spans="1:19" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -2771,13 +2771,13 @@
         <v>44</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="38"/>
@@ -2790,7 +2790,7 @@
       <c r="Q27" s="55"/>
       <c r="R27" s="56"/>
     </row>
-    <row r="28" spans="1:19" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>36</v>
@@ -2810,10 +2810,10 @@
         <v>36</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="20"/>
@@ -2826,7 +2826,7 @@
       <c r="Q28" s="57"/>
       <c r="R28" s="58"/>
     </row>
-    <row r="29" spans="1:19" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>36</v>
@@ -2846,10 +2846,10 @@
         <v>36</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="20"/>

--- a/static/schedule/Pасписание/29 февраля 2024 четверг.xlsx
+++ b/static/schedule/Pасписание/29 февраля 2024 четверг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="111">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>17.15-18.50</t>
-  </si>
-  <si>
-    <t>Инструментальные средства разработки программного обеспечения
-Говезин Е.А.</t>
   </si>
   <si>
     <t>Производственная практика</t>
@@ -402,6 +398,11 @@
     <t>Технология разработки
 и защиты баз данных
 Яхругина Е.О</t>
+  </si>
+  <si>
+    <t>Организация и планирование налоговой деятельности
+Самостоятельная работа
+Кузина П.В.</t>
   </si>
 </sst>
 </file>
@@ -1666,8 +1667,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O5" activeCellId="1" sqref="M4 O5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1706,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="68"/>
       <c r="D1" s="68"/>
@@ -1774,40 +1775,40 @@
       <c r="E3" s="48"/>
       <c r="F3" s="33"/>
       <c r="G3" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="67" t="s">
+      <c r="M3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="Q3" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1822,40 +1823,40 @@
       <c r="E4" s="50"/>
       <c r="F4" s="33"/>
       <c r="G4" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="48" t="s">
+      <c r="M4" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>74</v>
-      </c>
       <c r="P4" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1866,38 +1867,38 @@
         <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>93</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>94</v>
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="33"/>
       <c r="K5" s="45"/>
       <c r="L5" s="33"/>
       <c r="M5" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="64"/>
       <c r="R5" s="27"/>
@@ -1910,22 +1911,22 @@
         <v>41</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>91</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="34"/>
@@ -1934,10 +1935,10 @@
       <c r="M6" s="45"/>
       <c r="N6" s="33"/>
       <c r="O6" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="21"/>
       <c r="R6" s="27"/>
@@ -1950,16 +1951,16 @@
         <v>42</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="33"/>
@@ -1986,16 +1987,16 @@
         <v>43</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="27"/>
@@ -2066,34 +2067,34 @@
       <c r="C10" s="45"/>
       <c r="D10" s="33"/>
       <c r="E10" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="33"/>
       <c r="K10" s="50"/>
       <c r="L10" s="33"/>
       <c r="M10" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S10" s="62" t="s">
         <v>36</v>
@@ -2112,34 +2113,34 @@
       <c r="C11" s="45"/>
       <c r="D11" s="33"/>
       <c r="E11" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="33"/>
       <c r="K11" s="45"/>
       <c r="L11" s="33"/>
       <c r="M11" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O11" s="48"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S11" s="62" t="s">
         <v>36</v>
@@ -2158,46 +2159,46 @@
       <c r="C12" s="45"/>
       <c r="D12" s="33"/>
       <c r="E12" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>84</v>
-      </c>
       <c r="L12" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M12" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q12" s="66" t="s">
-        <v>78</v>
-      </c>
       <c r="R12" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S12" s="62" t="s">
         <v>36</v>
@@ -2214,42 +2215,42 @@
         <v>41</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="33"/>
       <c r="G13" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>104</v>
-      </c>
       <c r="K13" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="45"/>
       <c r="R13" s="33"/>
@@ -2268,10 +2269,10 @@
         <v>42</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="33"/>
@@ -2280,24 +2281,24 @@
         <v>36</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M14" s="48"/>
       <c r="N14" s="33"/>
       <c r="O14" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="33"/>
@@ -2313,10 +2314,10 @@
         <v>43</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="33"/>
@@ -2327,10 +2328,10 @@
         <v>36</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>36</v>
@@ -2341,10 +2342,10 @@
       <c r="M15" s="48"/>
       <c r="N15" s="33"/>
       <c r="O15" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="33"/>
@@ -2393,37 +2394,37 @@
         <v>31</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="33"/>
       <c r="G17" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="33"/>
       <c r="K17" s="21"/>
       <c r="L17" s="33"/>
       <c r="M17" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="64"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2431,24 +2432,28 @@
         <v>32</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="33"/>
+        <v>104</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>100</v>
+      </c>
       <c r="G18" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="33"/>
@@ -2461,10 +2466,10 @@
       <c r="O18" s="63"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2475,28 +2480,28 @@
         <v>40</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="33"/>
@@ -2509,10 +2514,10 @@
       <c r="O19" s="48"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2523,31 +2528,31 @@
         <v>41</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="33"/>
       <c r="I20" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J20" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>100</v>
-      </c>
       <c r="M20" s="48" t="s">
         <v>36</v>
       </c>
@@ -2555,10 +2560,10 @@
         <v>36</v>
       </c>
       <c r="O20" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="48"/>
       <c r="R20" s="33"/>
@@ -2573,25 +2578,25 @@
       <c r="C21" s="47"/>
       <c r="D21" s="33"/>
       <c r="E21" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
       <c r="I21" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J21" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>100</v>
-      </c>
       <c r="M21" s="48" t="s">
         <v>36</v>
       </c>
@@ -2599,10 +2604,10 @@
         <v>36</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="48"/>
       <c r="R21" s="33"/>
@@ -2617,10 +2622,10 @@
       <c r="C22" s="48"/>
       <c r="D22" s="33"/>
       <c r="E22" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="42"/>
@@ -2629,10 +2634,10 @@
         <v>36</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>36</v>
@@ -2713,7 +2718,7 @@
         <v>38</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="33"/>
@@ -2728,7 +2733,7 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:19" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2738,13 +2743,17 @@
       <c r="C26" s="45"/>
       <c r="D26" s="33"/>
       <c r="E26" s="48" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="33"/>
+        <v>91</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>100</v>
+      </c>
       <c r="I26" s="48"/>
       <c r="J26" s="38"/>
       <c r="K26" s="48"/>
@@ -2768,16 +2777,16 @@
         <v>36</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="38"/>
@@ -2801,7 +2810,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>36</v>
@@ -2810,10 +2819,10 @@
         <v>36</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="20"/>
@@ -2837,7 +2846,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>36</v>
@@ -2846,10 +2855,10 @@
         <v>36</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="20"/>
